--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Bədən tərbiyəsi və idman</t>
+          <t>fakültə üzrə</t>
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
@@ -1005,7 +1005,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>IV</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1014,12 +1014,10 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" s="4" t="n"/>
       <c r="F17" s="4" t="n"/>
       <c r="G17" s="4" t="n"/>
       <c r="H17" s="4" t="n"/>
@@ -1039,24 +1037,20 @@
       <c r="V17" s="4" t="n"/>
       <c r="W17" s="4" t="n"/>
       <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y17" s="4" t="n"/>
       <c r="Z17" s="4" t="n"/>
       <c r="AA17" s="4" t="n"/>
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="7" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="AD17" s="7" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AF17" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AF17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
@@ -1065,7 +1059,9 @@
           <t>Ödənişsiz</t>
         </is>
       </c>
-      <c r="C18" s="4" t="n"/>
+      <c r="C18" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
       <c r="F18" s="4" t="n"/>
@@ -1091,9 +1087,15 @@
       <c r="Z18" s="4" t="n"/>
       <c r="AA18" s="4" t="n"/>
       <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-      <c r="AE18" s="4" t="n"/>
+      <c r="AC18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="AF18" s="4" t="n"/>
     </row>
     <row r="19">
@@ -1142,12 +1144,10 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4" t="n"/>
-      <c r="E20" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="4" t="n"/>
       <c r="F20" s="4" t="n"/>
       <c r="G20" s="4" t="n"/>
       <c r="H20" s="4" t="n"/>
@@ -1167,29 +1167,25 @@
       <c r="V20" s="4" t="n"/>
       <c r="W20" s="4" t="n"/>
       <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y20" s="4" t="n"/>
       <c r="Z20" s="4" t="n"/>
       <c r="AA20" s="4" t="n"/>
       <c r="AB20" s="4" t="n"/>
       <c r="AC20" s="7" t="n">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="AD20" s="7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AF20" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AF20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Ümumi cəmi</t>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>II</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1198,12 +1194,10 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E21" s="4" t="n"/>
       <c r="F21" s="4" t="n"/>
       <c r="G21" s="4" t="n"/>
       <c r="H21" s="4" t="n"/>
@@ -1223,24 +1217,20 @@
       <c r="V21" s="4" t="n"/>
       <c r="W21" s="4" t="n"/>
       <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y21" s="4" t="n"/>
       <c r="Z21" s="4" t="n"/>
       <c r="AA21" s="4" t="n"/>
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="7" t="n">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AD21" s="7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AF21" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
@@ -1249,7 +1239,9 @@
           <t>Ödənişsiz</t>
         </is>
       </c>
-      <c r="C22" s="4" t="n"/>
+      <c r="C22" s="7" t="n">
+        <v>14</v>
+      </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
       <c r="F22" s="4" t="n"/>
@@ -1275,9 +1267,15 @@
       <c r="Z22" s="4" t="n"/>
       <c r="AA22" s="4" t="n"/>
       <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="4" t="n"/>
-      <c r="AE22" s="4" t="n"/>
+      <c r="AC22" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD22" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="AF22" s="4" t="n"/>
     </row>
     <row r="23">
@@ -1326,12 +1324,10 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="n"/>
-      <c r="E24" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" s="4" t="n"/>
       <c r="F24" s="4" t="n"/>
       <c r="G24" s="4" t="n"/>
       <c r="H24" s="4" t="n"/>
@@ -1351,31 +1347,592 @@
       <c r="V24" s="4" t="n"/>
       <c r="W24" s="4" t="n"/>
       <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y24" s="4" t="n"/>
       <c r="Z24" s="4" t="n"/>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="7" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="AD24" s="7" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AF24" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="4" t="n"/>
+      <c r="I25" s="4" t="n"/>
+      <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="4" t="n"/>
+      <c r="N25" s="4" t="n"/>
+      <c r="O25" s="4" t="n"/>
+      <c r="P25" s="4" t="n"/>
+      <c r="Q25" s="4" t="n"/>
+      <c r="R25" s="4" t="n"/>
+      <c r="S25" s="4" t="n"/>
+      <c r="T25" s="4" t="n"/>
+      <c r="U25" s="4" t="n"/>
+      <c r="V25" s="4" t="n"/>
+      <c r="W25" s="4" t="n"/>
+      <c r="X25" s="4" t="n"/>
+      <c r="Y25" s="4" t="n"/>
+      <c r="Z25" s="4" t="n"/>
+      <c r="AA25" s="4" t="n"/>
+      <c r="AB25" s="4" t="n"/>
+      <c r="AC25" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="L26" s="4" t="n"/>
+      <c r="M26" s="4" t="n"/>
+      <c r="N26" s="4" t="n"/>
+      <c r="O26" s="4" t="n"/>
+      <c r="P26" s="4" t="n"/>
+      <c r="Q26" s="4" t="n"/>
+      <c r="R26" s="4" t="n"/>
+      <c r="S26" s="4" t="n"/>
+      <c r="T26" s="4" t="n"/>
+      <c r="U26" s="4" t="n"/>
+      <c r="V26" s="4" t="n"/>
+      <c r="W26" s="4" t="n"/>
+      <c r="X26" s="4" t="n"/>
+      <c r="Y26" s="4" t="n"/>
+      <c r="Z26" s="4" t="n"/>
+      <c r="AA26" s="4" t="n"/>
+      <c r="AB26" s="4" t="n"/>
+      <c r="AC26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE26" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="AF26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+      <c r="H27" s="4" t="n"/>
+      <c r="I27" s="4" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="L27" s="4" t="n"/>
+      <c r="M27" s="4" t="n"/>
+      <c r="N27" s="4" t="n"/>
+      <c r="O27" s="4" t="n"/>
+      <c r="P27" s="4" t="n"/>
+      <c r="Q27" s="4" t="n"/>
+      <c r="R27" s="4" t="n"/>
+      <c r="S27" s="4" t="n"/>
+      <c r="T27" s="4" t="n"/>
+      <c r="U27" s="4" t="n"/>
+      <c r="V27" s="4" t="n"/>
+      <c r="W27" s="4" t="n"/>
+      <c r="X27" s="4" t="n"/>
+      <c r="Y27" s="4" t="n"/>
+      <c r="Z27" s="4" t="n"/>
+      <c r="AA27" s="4" t="n"/>
+      <c r="AB27" s="4" t="n"/>
+      <c r="AC27" s="4" t="n"/>
+      <c r="AD27" s="4" t="n"/>
+      <c r="AE27" s="4" t="n"/>
+      <c r="AF27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="H28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
+      <c r="L28" s="4" t="n"/>
+      <c r="M28" s="4" t="n"/>
+      <c r="N28" s="4" t="n"/>
+      <c r="O28" s="4" t="n"/>
+      <c r="P28" s="4" t="n"/>
+      <c r="Q28" s="4" t="n"/>
+      <c r="R28" s="4" t="n"/>
+      <c r="S28" s="4" t="n"/>
+      <c r="T28" s="4" t="n"/>
+      <c r="U28" s="4" t="n"/>
+      <c r="V28" s="4" t="n"/>
+      <c r="W28" s="4" t="n"/>
+      <c r="X28" s="4" t="n"/>
+      <c r="Y28" s="4" t="n"/>
+      <c r="Z28" s="4" t="n"/>
+      <c r="AA28" s="4" t="n"/>
+      <c r="AB28" s="4" t="n"/>
+      <c r="AC28" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AE28" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="4" t="n"/>
+      <c r="H29" s="4" t="n"/>
+      <c r="I29" s="4" t="n"/>
+      <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
+      <c r="L29" s="4" t="n"/>
+      <c r="M29" s="4" t="n"/>
+      <c r="N29" s="4" t="n"/>
+      <c r="O29" s="4" t="n"/>
+      <c r="P29" s="4" t="n"/>
+      <c r="Q29" s="4" t="n"/>
+      <c r="R29" s="4" t="n"/>
+      <c r="S29" s="4" t="n"/>
+      <c r="T29" s="4" t="n"/>
+      <c r="U29" s="4" t="n"/>
+      <c r="V29" s="4" t="n"/>
+      <c r="W29" s="4" t="n"/>
+      <c r="X29" s="4" t="n"/>
+      <c r="Y29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="4" t="n"/>
+      <c r="AA29" s="4" t="n"/>
+      <c r="AB29" s="4" t="n"/>
+      <c r="AC29" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD29" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="4" t="n"/>
+      <c r="H30" s="4" t="n"/>
+      <c r="I30" s="4" t="n"/>
+      <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
+      <c r="L30" s="4" t="n"/>
+      <c r="M30" s="4" t="n"/>
+      <c r="N30" s="4" t="n"/>
+      <c r="O30" s="4" t="n"/>
+      <c r="P30" s="4" t="n"/>
+      <c r="Q30" s="4" t="n"/>
+      <c r="R30" s="4" t="n"/>
+      <c r="S30" s="4" t="n"/>
+      <c r="T30" s="4" t="n"/>
+      <c r="U30" s="4" t="n"/>
+      <c r="V30" s="4" t="n"/>
+      <c r="W30" s="4" t="n"/>
+      <c r="X30" s="4" t="n"/>
+      <c r="Y30" s="4" t="n"/>
+      <c r="Z30" s="4" t="n"/>
+      <c r="AA30" s="4" t="n"/>
+      <c r="AB30" s="4" t="n"/>
+      <c r="AC30" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
+      <c r="G31" s="4" t="n"/>
+      <c r="H31" s="4" t="n"/>
+      <c r="I31" s="4" t="n"/>
+      <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
+      <c r="L31" s="4" t="n"/>
+      <c r="M31" s="4" t="n"/>
+      <c r="N31" s="4" t="n"/>
+      <c r="O31" s="4" t="n"/>
+      <c r="P31" s="4" t="n"/>
+      <c r="Q31" s="4" t="n"/>
+      <c r="R31" s="4" t="n"/>
+      <c r="S31" s="4" t="n"/>
+      <c r="T31" s="4" t="n"/>
+      <c r="U31" s="4" t="n"/>
+      <c r="V31" s="4" t="n"/>
+      <c r="W31" s="4" t="n"/>
+      <c r="X31" s="4" t="n"/>
+      <c r="Y31" s="4" t="n"/>
+      <c r="Z31" s="4" t="n"/>
+      <c r="AA31" s="4" t="n"/>
+      <c r="AB31" s="4" t="n"/>
+      <c r="AC31" s="4" t="n"/>
+      <c r="AD31" s="4" t="n"/>
+      <c r="AE31" s="4" t="n"/>
+      <c r="AF31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="4" t="n"/>
+      <c r="H32" s="4" t="n"/>
+      <c r="I32" s="4" t="n"/>
+      <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="4" t="n"/>
+      <c r="N32" s="4" t="n"/>
+      <c r="O32" s="4" t="n"/>
+      <c r="P32" s="4" t="n"/>
+      <c r="Q32" s="4" t="n"/>
+      <c r="R32" s="4" t="n"/>
+      <c r="S32" s="4" t="n"/>
+      <c r="T32" s="4" t="n"/>
+      <c r="U32" s="4" t="n"/>
+      <c r="V32" s="4" t="n"/>
+      <c r="W32" s="4" t="n"/>
+      <c r="X32" s="4" t="n"/>
+      <c r="Y32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="4" t="n"/>
+      <c r="AA32" s="4" t="n"/>
+      <c r="AB32" s="4" t="n"/>
+      <c r="AC32" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="AD32" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AE32" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Ümumi cəmi</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>330</v>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="4" t="n"/>
+      <c r="H33" s="4" t="n"/>
+      <c r="I33" s="4" t="n"/>
+      <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
+      <c r="L33" s="4" t="n"/>
+      <c r="M33" s="4" t="n"/>
+      <c r="N33" s="4" t="n"/>
+      <c r="O33" s="4" t="n"/>
+      <c r="P33" s="4" t="n"/>
+      <c r="Q33" s="4" t="n"/>
+      <c r="R33" s="4" t="n"/>
+      <c r="S33" s="4" t="n"/>
+      <c r="T33" s="4" t="n"/>
+      <c r="U33" s="4" t="n"/>
+      <c r="V33" s="4" t="n"/>
+      <c r="W33" s="4" t="n"/>
+      <c r="X33" s="4" t="n"/>
+      <c r="Y33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="4" t="n"/>
+      <c r="AA33" s="4" t="n"/>
+      <c r="AB33" s="4" t="n"/>
+      <c r="AC33" s="7" t="n">
+        <v>327</v>
+      </c>
+      <c r="AD33" s="7" t="n">
+        <v>267</v>
+      </c>
+      <c r="AE33" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF33" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="4" t="n"/>
+      <c r="H34" s="4" t="n"/>
+      <c r="I34" s="4" t="n"/>
+      <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="n"/>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="4" t="n"/>
+      <c r="N34" s="4" t="n"/>
+      <c r="O34" s="4" t="n"/>
+      <c r="P34" s="4" t="n"/>
+      <c r="Q34" s="4" t="n"/>
+      <c r="R34" s="4" t="n"/>
+      <c r="S34" s="4" t="n"/>
+      <c r="T34" s="4" t="n"/>
+      <c r="U34" s="4" t="n"/>
+      <c r="V34" s="4" t="n"/>
+      <c r="W34" s="4" t="n"/>
+      <c r="X34" s="4" t="n"/>
+      <c r="Y34" s="4" t="n"/>
+      <c r="Z34" s="4" t="n"/>
+      <c r="AA34" s="4" t="n"/>
+      <c r="AB34" s="4" t="n"/>
+      <c r="AC34" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD34" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE34" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="4" t="n"/>
+      <c r="H35" s="4" t="n"/>
+      <c r="I35" s="4" t="n"/>
+      <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="4" t="n"/>
+      <c r="N35" s="4" t="n"/>
+      <c r="O35" s="4" t="n"/>
+      <c r="P35" s="4" t="n"/>
+      <c r="Q35" s="4" t="n"/>
+      <c r="R35" s="4" t="n"/>
+      <c r="S35" s="4" t="n"/>
+      <c r="T35" s="4" t="n"/>
+      <c r="U35" s="4" t="n"/>
+      <c r="V35" s="4" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="X35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n"/>
+      <c r="Z35" s="4" t="n"/>
+      <c r="AA35" s="4" t="n"/>
+      <c r="AB35" s="4" t="n"/>
+      <c r="AC35" s="4" t="n"/>
+      <c r="AD35" s="4" t="n"/>
+      <c r="AE35" s="4" t="n"/>
+      <c r="AF35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>371</v>
+      </c>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="4" t="n"/>
+      <c r="H36" s="4" t="n"/>
+      <c r="I36" s="4" t="n"/>
+      <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="n"/>
+      <c r="O36" s="4" t="n"/>
+      <c r="P36" s="4" t="n"/>
+      <c r="Q36" s="4" t="n"/>
+      <c r="R36" s="4" t="n"/>
+      <c r="S36" s="4" t="n"/>
+      <c r="T36" s="4" t="n"/>
+      <c r="U36" s="4" t="n"/>
+      <c r="V36" s="4" t="n"/>
+      <c r="W36" s="4" t="n"/>
+      <c r="X36" s="4" t="n"/>
+      <c r="Y36" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="4" t="n"/>
+      <c r="AA36" s="4" t="n"/>
+      <c r="AB36" s="4" t="n"/>
+      <c r="AC36" s="7" t="n">
+        <v>368</v>
+      </c>
+      <c r="AD36" s="7" t="n">
+        <v>302</v>
+      </c>
+      <c r="AE36" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF36" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="44">
     <mergeCell ref="Q10:Q16"/>
     <mergeCell ref="S10:S16"/>
     <mergeCell ref="C7:C16"/>
     <mergeCell ref="AF7:AF16"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="B7:B16"/>
     <mergeCell ref="AE10:AE16"/>
     <mergeCell ref="L10:L16"/>
@@ -1388,6 +1945,7 @@
     <mergeCell ref="AC7:AC16"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="X10:X16"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="I10:I16"/>
     <mergeCell ref="U10:U16"/>
     <mergeCell ref="K10:K16"/>
@@ -1398,6 +1956,7 @@
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="H10:H16"/>
     <mergeCell ref="R10:R16"/>
     <mergeCell ref="A2:AF2"/>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,7 @@
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
+      <c r="AG6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
@@ -571,18 +572,19 @@
       <c r="Z7" s="4" t="n"/>
       <c r="AA7" s="4" t="n"/>
       <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="6" t="inlineStr">
+      <c r="AC7" s="4" t="n"/>
+      <c r="AD7" s="6" t="inlineStr">
         <is>
           <t>Hesabat ayinin sonuna olan tələbə sayi</t>
         </is>
       </c>
-      <c r="AD7" s="8" t="inlineStr">
+      <c r="AE7" s="8" t="inlineStr">
         <is>
           <t>Cins etibarilə yekun</t>
         </is>
       </c>
-      <c r="AE7" s="4" t="n"/>
-      <c r="AF7" s="6" t="inlineStr">
+      <c r="AF7" s="4" t="n"/>
+      <c r="AG7" s="6" t="inlineStr">
         <is>
           <t>Ak.məz. Olan tələbələrin sayi (cəmi daxil deyil)</t>
         </is>
@@ -621,6 +623,7 @@
       <c r="AD8" s="4" t="n"/>
       <c r="AE8" s="4" t="n"/>
       <c r="AF8" s="4" t="n"/>
+      <c r="AG8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n"/>
@@ -655,6 +658,7 @@
       <c r="AD9" s="4" t="n"/>
       <c r="AE9" s="4" t="n"/>
       <c r="AF9" s="4" t="n"/>
+      <c r="AG9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n"/>
@@ -782,21 +786,26 @@
       </c>
       <c r="AB10" s="6" t="inlineStr">
         <is>
+          <t>Sənədləri təqdim etmədiyi üçün (miqrasiya)</t>
+        </is>
+      </c>
+      <c r="AC10" s="6" t="inlineStr">
+        <is>
           <t>Cəmi</t>
         </is>
       </c>
-      <c r="AC10" s="4" t="n"/>
-      <c r="AD10" s="5" t="inlineStr">
+      <c r="AD10" s="4" t="n"/>
+      <c r="AE10" s="5" t="inlineStr">
         <is>
           <t>Kişi</t>
         </is>
       </c>
-      <c r="AE10" s="5" t="inlineStr">
+      <c r="AF10" s="5" t="inlineStr">
         <is>
           <t>Qadın</t>
         </is>
       </c>
-      <c r="AF10" s="4" t="n"/>
+      <c r="AG10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -831,6 +840,7 @@
       <c r="AD11" s="4" t="n"/>
       <c r="AE11" s="4" t="n"/>
       <c r="AF11" s="4" t="n"/>
+      <c r="AG11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n"/>
@@ -865,6 +875,7 @@
       <c r="AD12" s="4" t="n"/>
       <c r="AE12" s="4" t="n"/>
       <c r="AF12" s="4" t="n"/>
+      <c r="AG12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
@@ -899,6 +910,7 @@
       <c r="AD13" s="4" t="n"/>
       <c r="AE13" s="4" t="n"/>
       <c r="AF13" s="4" t="n"/>
+      <c r="AG13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n"/>
@@ -933,6 +945,7 @@
       <c r="AD14" s="4" t="n"/>
       <c r="AE14" s="4" t="n"/>
       <c r="AF14" s="4" t="n"/>
+      <c r="AG14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
@@ -967,6 +980,7 @@
       <c r="AD15" s="4" t="n"/>
       <c r="AE15" s="4" t="n"/>
       <c r="AF15" s="4" t="n"/>
+      <c r="AG15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
@@ -1001,6 +1015,7 @@
       <c r="AD16" s="4" t="n"/>
       <c r="AE16" s="4" t="n"/>
       <c r="AF16" s="4" t="n"/>
+      <c r="AG16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1041,16 +1056,17 @@
       <c r="Z17" s="4" t="n"/>
       <c r="AA17" s="4" t="n"/>
       <c r="AB17" s="4" t="n"/>
-      <c r="AC17" s="7" t="n">
+      <c r="AC17" s="4" t="n"/>
+      <c r="AD17" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="AD17" s="7" t="n">
+      <c r="AE17" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="AE17" s="7" t="n">
+      <c r="AF17" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="AF17" s="4" t="n"/>
+      <c r="AG17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
@@ -1087,16 +1103,17 @@
       <c r="Z18" s="4" t="n"/>
       <c r="AA18" s="4" t="n"/>
       <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="AC18" s="4" t="n"/>
       <c r="AD18" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AE18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AF18" s="4" t="n"/>
+      <c r="AG18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
@@ -1135,6 +1152,7 @@
       <c r="AD19" s="4" t="n"/>
       <c r="AE19" s="4" t="n"/>
       <c r="AF19" s="4" t="n"/>
+      <c r="AG19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
@@ -1171,16 +1189,17 @@
       <c r="Z20" s="4" t="n"/>
       <c r="AA20" s="4" t="n"/>
       <c r="AB20" s="4" t="n"/>
-      <c r="AC20" s="7" t="n">
+      <c r="AC20" s="4" t="n"/>
+      <c r="AD20" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="AD20" s="7" t="n">
+      <c r="AE20" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="AE20" s="7" t="n">
+      <c r="AF20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="AF20" s="4" t="n"/>
+      <c r="AG20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1221,16 +1240,17 @@
       <c r="Z21" s="4" t="n"/>
       <c r="AA21" s="4" t="n"/>
       <c r="AB21" s="4" t="n"/>
-      <c r="AC21" s="7" t="n">
+      <c r="AC21" s="4" t="n"/>
+      <c r="AD21" s="7" t="n">
         <v>79</v>
       </c>
-      <c r="AD21" s="7" t="n">
+      <c r="AE21" s="7" t="n">
         <v>65</v>
       </c>
-      <c r="AE21" s="7" t="n">
+      <c r="AF21" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="AF21" s="4" t="n"/>
+      <c r="AG21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
@@ -1267,16 +1287,17 @@
       <c r="Z22" s="4" t="n"/>
       <c r="AA22" s="4" t="n"/>
       <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="7" t="n">
+      <c r="AC22" s="4" t="n"/>
+      <c r="AD22" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="AD22" s="7" t="n">
+      <c r="AE22" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="AE22" s="7" t="n">
+      <c r="AF22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="4" t="n"/>
+      <c r="AG22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
@@ -1315,6 +1336,7 @@
       <c r="AD23" s="4" t="n"/>
       <c r="AE23" s="4" t="n"/>
       <c r="AF23" s="4" t="n"/>
+      <c r="AG23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n"/>
@@ -1351,16 +1373,17 @@
       <c r="Z24" s="4" t="n"/>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="7" t="n">
+      <c r="AC24" s="4" t="n"/>
+      <c r="AD24" s="7" t="n">
         <v>93</v>
       </c>
-      <c r="AD24" s="7" t="n">
+      <c r="AE24" s="7" t="n">
         <v>78</v>
       </c>
-      <c r="AE24" s="7" t="n">
+      <c r="AF24" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="AF24" s="4" t="n"/>
+      <c r="AG24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1401,16 +1424,17 @@
       <c r="Z25" s="4" t="n"/>
       <c r="AA25" s="4" t="n"/>
       <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="7" t="n">
+      <c r="AC25" s="4" t="n"/>
+      <c r="AD25" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="AD25" s="7" t="n">
+      <c r="AE25" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="AE25" s="7" t="n">
+      <c r="AF25" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="AF25" s="4" t="n"/>
+      <c r="AG25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n"/>
@@ -1447,16 +1471,17 @@
       <c r="Z26" s="4" t="n"/>
       <c r="AA26" s="4" t="n"/>
       <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="7" t="n">
+      <c r="AC26" s="4" t="n"/>
+      <c r="AD26" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="AD26" s="7" t="n">
+      <c r="AE26" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="AE26" s="7" t="n">
+      <c r="AF26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF26" s="4" t="n"/>
+      <c r="AG26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n"/>
@@ -1495,6 +1520,7 @@
       <c r="AD27" s="4" t="n"/>
       <c r="AE27" s="4" t="n"/>
       <c r="AF27" s="4" t="n"/>
+      <c r="AG27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n"/>
@@ -1531,16 +1557,17 @@
       <c r="Z28" s="4" t="n"/>
       <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="7" t="n">
+      <c r="AC28" s="4" t="n"/>
+      <c r="AD28" s="7" t="n">
         <v>84</v>
       </c>
-      <c r="AD28" s="7" t="n">
+      <c r="AE28" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="AE28" s="7" t="n">
+      <c r="AF28" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="AF28" s="4" t="n"/>
+      <c r="AG28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1585,16 +1612,17 @@
       <c r="Z29" s="4" t="n"/>
       <c r="AA29" s="4" t="n"/>
       <c r="AB29" s="4" t="n"/>
-      <c r="AC29" s="7" t="n">
+      <c r="AC29" s="4" t="n"/>
+      <c r="AD29" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="AD29" s="7" t="n">
+      <c r="AE29" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="AE29" s="7" t="n">
+      <c r="AF29" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="AF29" s="7" t="n">
+      <c r="AG29" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1633,16 +1661,17 @@
       <c r="Z30" s="4" t="n"/>
       <c r="AA30" s="4" t="n"/>
       <c r="AB30" s="4" t="n"/>
-      <c r="AC30" s="7" t="n">
+      <c r="AC30" s="4" t="n"/>
+      <c r="AD30" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="AD30" s="7" t="n">
+      <c r="AE30" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="AE30" s="7" t="n">
+      <c r="AF30" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AF30" s="4" t="n"/>
+      <c r="AG30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
@@ -1681,6 +1710,7 @@
       <c r="AD31" s="4" t="n"/>
       <c r="AE31" s="4" t="n"/>
       <c r="AF31" s="4" t="n"/>
+      <c r="AG31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n"/>
@@ -1721,16 +1751,17 @@
       <c r="Z32" s="4" t="n"/>
       <c r="AA32" s="4" t="n"/>
       <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="7" t="n">
+      <c r="AC32" s="4" t="n"/>
+      <c r="AD32" s="7" t="n">
         <v>83</v>
       </c>
-      <c r="AD32" s="7" t="n">
+      <c r="AE32" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="AE32" s="7" t="n">
+      <c r="AF32" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="AF32" s="7" t="n">
+      <c r="AG32" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1777,16 +1808,17 @@
       <c r="Z33" s="4" t="n"/>
       <c r="AA33" s="4" t="n"/>
       <c r="AB33" s="4" t="n"/>
-      <c r="AC33" s="7" t="n">
+      <c r="AC33" s="4" t="n"/>
+      <c r="AD33" s="7" t="n">
         <v>327</v>
       </c>
-      <c r="AD33" s="7" t="n">
+      <c r="AE33" s="7" t="n">
         <v>267</v>
       </c>
-      <c r="AE33" s="7" t="n">
+      <c r="AF33" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="AF33" s="7" t="n">
+      <c r="AG33" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,16 +1857,17 @@
       <c r="Z34" s="4" t="n"/>
       <c r="AA34" s="4" t="n"/>
       <c r="AB34" s="4" t="n"/>
-      <c r="AC34" s="7" t="n">
+      <c r="AC34" s="4" t="n"/>
+      <c r="AD34" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="AD34" s="7" t="n">
+      <c r="AE34" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="AE34" s="7" t="n">
+      <c r="AF34" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="AF34" s="4" t="n"/>
+      <c r="AG34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
@@ -1873,6 +1906,7 @@
       <c r="AD35" s="4" t="n"/>
       <c r="AE35" s="4" t="n"/>
       <c r="AF35" s="4" t="n"/>
+      <c r="AG35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
@@ -1913,36 +1947,39 @@
       <c r="Z36" s="4" t="n"/>
       <c r="AA36" s="4" t="n"/>
       <c r="AB36" s="4" t="n"/>
-      <c r="AC36" s="7" t="n">
+      <c r="AC36" s="4" t="n"/>
+      <c r="AD36" s="7" t="n">
         <v>368</v>
       </c>
-      <c r="AD36" s="7" t="n">
+      <c r="AE36" s="7" t="n">
         <v>302</v>
       </c>
-      <c r="AE36" s="7" t="n">
+      <c r="AF36" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="AF36" s="7" t="n">
+      <c r="AG36" s="7" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="Q10:Q16"/>
+    <mergeCell ref="AC10:AC16"/>
     <mergeCell ref="S10:S16"/>
+    <mergeCell ref="A6:AG6"/>
     <mergeCell ref="C7:C16"/>
-    <mergeCell ref="AF7:AF16"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B7:B16"/>
     <mergeCell ref="AE10:AE16"/>
     <mergeCell ref="L10:L16"/>
+    <mergeCell ref="AE7:AF9"/>
     <mergeCell ref="N10:N16"/>
     <mergeCell ref="Z10:Z16"/>
     <mergeCell ref="D7:L9"/>
+    <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AB10:AB16"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A6:AF6"/>
-    <mergeCell ref="AC7:AC16"/>
+    <mergeCell ref="A2:AG2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="X10:X16"/>
     <mergeCell ref="A33:A36"/>
@@ -1954,22 +1991,21 @@
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="M7:AC9"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="H10:H16"/>
     <mergeCell ref="R10:R16"/>
-    <mergeCell ref="A2:AF2"/>
     <mergeCell ref="J10:J16"/>
     <mergeCell ref="P10:P16"/>
     <mergeCell ref="V10:V16"/>
     <mergeCell ref="AA10:AA16"/>
-    <mergeCell ref="AD10:AD16"/>
     <mergeCell ref="M10:M16"/>
-    <mergeCell ref="AD7:AE9"/>
+    <mergeCell ref="AF10:AF16"/>
+    <mergeCell ref="AG7:AG16"/>
     <mergeCell ref="T10:T16"/>
+    <mergeCell ref="AD7:AD16"/>
     <mergeCell ref="E10:E16"/>
-    <mergeCell ref="M7:AB9"/>
     <mergeCell ref="G10:G16"/>
     <mergeCell ref="Y10:Y16"/>
   </mergeCells>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="7" t="n">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="7" t="n">

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pedaqoji fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
+          <t>Tibb fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>Yda-dan keçmədiyindən normativdən artiq təhsil alanə</t>
+          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>Ailə vəz ilə əlaqədar ak.məz.</t>
+          <t>Ailə vəz ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1058,13 +1058,13 @@
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="4" t="n"/>
       <c r="AD17" s="7" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="4" t="n"/>
     </row>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -1105,15 +1105,17 @@
       <c r="AB18" s="4" t="n"/>
       <c r="AC18" s="4" t="n"/>
       <c r="AD18" s="7" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4" t="n"/>
+        <v>95</v>
+      </c>
+      <c r="AG18" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
@@ -1122,7 +1124,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C19" s="4" t="n"/>
+      <c r="C19" s="7" t="n">
+        <v>325</v>
+      </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
       <c r="F19" s="4" t="n"/>
@@ -1134,24 +1138,40 @@
       <c r="L19" s="4" t="n"/>
       <c r="M19" s="4" t="n"/>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
+      <c r="O19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" s="4" t="n"/>
       <c r="R19" s="4" t="n"/>
       <c r="S19" s="4" t="n"/>
       <c r="T19" s="4" t="n"/>
       <c r="U19" s="4" t="n"/>
       <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
+      <c r="W19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
+      <c r="Y19" s="7" t="n">
+        <v>17</v>
+      </c>
       <c r="Z19" s="4" t="n"/>
       <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
+      <c r="AB19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-      <c r="AE19" s="4" t="n"/>
-      <c r="AF19" s="4" t="n"/>
+      <c r="AD19" s="7" t="n">
+        <v>325</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>178</v>
+      </c>
+      <c r="AF19" s="7" t="n">
+        <v>147</v>
+      </c>
       <c r="AG19" s="4" t="n"/>
     </row>
     <row r="20">
@@ -1162,7 +1182,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -1175,31 +1195,43 @@
       <c r="L20" s="4" t="n"/>
       <c r="M20" s="4" t="n"/>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
+      <c r="O20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" s="4" t="n"/>
       <c r="R20" s="4" t="n"/>
       <c r="S20" s="4" t="n"/>
       <c r="T20" s="4" t="n"/>
       <c r="U20" s="4" t="n"/>
       <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
+      <c r="W20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
+      <c r="Y20" s="7" t="n">
+        <v>17</v>
+      </c>
       <c r="Z20" s="4" t="n"/>
       <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="AB20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="AC20" s="4" t="n"/>
       <c r="AD20" s="7" t="n">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG20" s="4" t="n"/>
+        <v>247</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1213,7 +1245,7 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -1242,13 +1274,13 @@
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
       <c r="AD21" s="7" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AG21" s="4" t="n"/>
     </row>
@@ -1260,7 +1292,7 @@
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
@@ -1289,15 +1321,17 @@
       <c r="AB22" s="4" t="n"/>
       <c r="AC22" s="4" t="n"/>
       <c r="AD22" s="7" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AF22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="4" t="n"/>
+        <v>32</v>
+      </c>
+      <c r="AG22" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
@@ -1306,9 +1340,13 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C23" s="4" t="n"/>
+      <c r="C23" s="7" t="n">
+        <v>323</v>
+      </c>
       <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
+      <c r="E23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="4" t="n"/>
       <c r="G23" s="4" t="n"/>
       <c r="H23" s="4" t="n"/>
@@ -1328,14 +1366,22 @@
       <c r="V23" s="4" t="n"/>
       <c r="W23" s="4" t="n"/>
       <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
+      <c r="Y23" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="Z23" s="4" t="n"/>
       <c r="AA23" s="4" t="n"/>
       <c r="AB23" s="4" t="n"/>
       <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-      <c r="AE23" s="4" t="n"/>
-      <c r="AF23" s="4" t="n"/>
+      <c r="AD23" s="7" t="n">
+        <v>323</v>
+      </c>
+      <c r="AE23" s="7" t="n">
+        <v>174</v>
+      </c>
+      <c r="AF23" s="7" t="n">
+        <v>149</v>
+      </c>
       <c r="AG23" s="4" t="n"/>
     </row>
     <row r="24">
@@ -1346,10 +1392,12 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
+      <c r="E24" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="4" t="n"/>
       <c r="G24" s="4" t="n"/>
       <c r="H24" s="4" t="n"/>
@@ -1369,21 +1417,25 @@
       <c r="V24" s="4" t="n"/>
       <c r="W24" s="4" t="n"/>
       <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
+      <c r="Y24" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="Z24" s="4" t="n"/>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="4" t="n"/>
       <c r="AD24" s="7" t="n">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" s="4" t="n"/>
+        <v>210</v>
+      </c>
+      <c r="AG24" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1397,7 +1449,7 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -1426,13 +1478,13 @@
       <c r="AB25" s="4" t="n"/>
       <c r="AC25" s="4" t="n"/>
       <c r="AD25" s="7" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AG25" s="4" t="n"/>
     </row>
@@ -1444,7 +1496,7 @@
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -1473,15 +1525,17 @@
       <c r="AB26" s="4" t="n"/>
       <c r="AC26" s="4" t="n"/>
       <c r="AD26" s="7" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="4" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="AG26" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n"/>
@@ -1490,9 +1544,13 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n"/>
+      <c r="C27" s="7" t="n">
+        <v>273</v>
+      </c>
       <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
+      <c r="E27" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F27" s="4" t="n"/>
       <c r="G27" s="4" t="n"/>
       <c r="H27" s="4" t="n"/>
@@ -1512,14 +1570,22 @@
       <c r="V27" s="4" t="n"/>
       <c r="W27" s="4" t="n"/>
       <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
+      <c r="Y27" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="Z27" s="4" t="n"/>
       <c r="AA27" s="4" t="n"/>
       <c r="AB27" s="4" t="n"/>
       <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-      <c r="AE27" s="4" t="n"/>
-      <c r="AF27" s="4" t="n"/>
+      <c r="AD27" s="7" t="n">
+        <v>273</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>169</v>
+      </c>
+      <c r="AF27" s="7" t="n">
+        <v>104</v>
+      </c>
       <c r="AG27" s="4" t="n"/>
     </row>
     <row r="28">
@@ -1530,10 +1596,12 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
+      <c r="E28" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F28" s="4" t="n"/>
       <c r="G28" s="4" t="n"/>
       <c r="H28" s="4" t="n"/>
@@ -1553,21 +1621,25 @@
       <c r="V28" s="4" t="n"/>
       <c r="W28" s="4" t="n"/>
       <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
+      <c r="Y28" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="Z28" s="4" t="n"/>
       <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n"/>
       <c r="AC28" s="4" t="n"/>
       <c r="AD28" s="7" t="n">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG28" s="4" t="n"/>
+        <v>156</v>
+      </c>
+      <c r="AG28" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1581,12 +1653,10 @@
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D29" s="4" t="n"/>
-      <c r="E29" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
       <c r="G29" s="4" t="n"/>
       <c r="H29" s="4" t="n"/>
@@ -1606,21 +1676,19 @@
       <c r="V29" s="4" t="n"/>
       <c r="W29" s="4" t="n"/>
       <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y29" s="4" t="n"/>
       <c r="Z29" s="4" t="n"/>
       <c r="AA29" s="4" t="n"/>
       <c r="AB29" s="4" t="n"/>
       <c r="AC29" s="4" t="n"/>
       <c r="AD29" s="7" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG29" s="7" t="n">
         <v>1</v>
@@ -1634,7 +1702,7 @@
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -1663,15 +1731,17 @@
       <c r="AB30" s="4" t="n"/>
       <c r="AC30" s="4" t="n"/>
       <c r="AD30" s="7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG30" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="AG30" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
@@ -1680,7 +1750,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C31" s="4" t="n"/>
+      <c r="C31" s="7" t="n">
+        <v>206</v>
+      </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
       <c r="F31" s="4" t="n"/>
@@ -1702,14 +1774,22 @@
       <c r="V31" s="4" t="n"/>
       <c r="W31" s="4" t="n"/>
       <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
+      <c r="Y31" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="Z31" s="4" t="n"/>
       <c r="AA31" s="4" t="n"/>
       <c r="AB31" s="4" t="n"/>
       <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-      <c r="AE31" s="4" t="n"/>
-      <c r="AF31" s="4" t="n"/>
+      <c r="AD31" s="7" t="n">
+        <v>206</v>
+      </c>
+      <c r="AE31" s="7" t="n">
+        <v>138</v>
+      </c>
+      <c r="AF31" s="7" t="n">
+        <v>68</v>
+      </c>
       <c r="AG31" s="4" t="n"/>
     </row>
     <row r="32">
@@ -1720,12 +1800,10 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="D32" s="4" t="n"/>
-      <c r="E32" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E32" s="4" t="n"/>
       <c r="F32" s="4" t="n"/>
       <c r="G32" s="4" t="n"/>
       <c r="H32" s="4" t="n"/>
@@ -1746,29 +1824,29 @@
       <c r="W32" s="4" t="n"/>
       <c r="X32" s="4" t="n"/>
       <c r="Y32" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="4" t="n"/>
       <c r="AA32" s="4" t="n"/>
       <c r="AB32" s="4" t="n"/>
       <c r="AC32" s="4" t="n"/>
       <c r="AD32" s="7" t="n">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="AG32" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Ümumi cəmi</t>
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -1777,12 +1855,10 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>330</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4" t="n"/>
-      <c r="E33" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E33" s="4" t="n"/>
       <c r="F33" s="4" t="n"/>
       <c r="G33" s="4" t="n"/>
       <c r="H33" s="4" t="n"/>
@@ -1802,25 +1878,21 @@
       <c r="V33" s="4" t="n"/>
       <c r="W33" s="4" t="n"/>
       <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y33" s="4" t="n"/>
       <c r="Z33" s="4" t="n"/>
       <c r="AA33" s="4" t="n"/>
       <c r="AB33" s="4" t="n"/>
       <c r="AC33" s="4" t="n"/>
       <c r="AD33" s="7" t="n">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="AE33" s="7" t="n">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG33" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AG33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -1830,7 +1902,7 @@
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -1859,13 +1931,13 @@
       <c r="AB34" s="4" t="n"/>
       <c r="AC34" s="4" t="n"/>
       <c r="AD34" s="7" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AG34" s="4" t="n"/>
     </row>
@@ -1876,7 +1948,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C35" s="4" t="n"/>
+      <c r="C35" s="7" t="n">
+        <v>106</v>
+      </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="4" t="n"/>
@@ -1898,14 +1972,22 @@
       <c r="V35" s="4" t="n"/>
       <c r="W35" s="4" t="n"/>
       <c r="X35" s="4" t="n"/>
-      <c r="Y35" s="4" t="n"/>
+      <c r="Y35" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Z35" s="4" t="n"/>
       <c r="AA35" s="4" t="n"/>
       <c r="AB35" s="4" t="n"/>
       <c r="AC35" s="4" t="n"/>
-      <c r="AD35" s="4" t="n"/>
-      <c r="AE35" s="4" t="n"/>
-      <c r="AF35" s="4" t="n"/>
+      <c r="AD35" s="7" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF35" s="7" t="n">
+        <v>48</v>
+      </c>
       <c r="AG35" s="4" t="n"/>
     </row>
     <row r="36">
@@ -1916,12 +1998,10 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="D36" s="4" t="n"/>
-      <c r="E36" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" s="4" t="n"/>
       <c r="F36" s="4" t="n"/>
       <c r="G36" s="4" t="n"/>
       <c r="H36" s="4" t="n"/>
@@ -1942,27 +2022,443 @@
       <c r="W36" s="4" t="n"/>
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="4" t="n"/>
       <c r="AA36" s="4" t="n"/>
       <c r="AB36" s="4" t="n"/>
       <c r="AC36" s="4" t="n"/>
       <c r="AD36" s="7" t="n">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <v>66</v>
-      </c>
-      <c r="AG36" s="7" t="n">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="AG36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE37" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF37" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE40" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Ümumi cəmi</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="AE41" s="7" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF41" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG41" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>316</v>
+      </c>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="7" t="n">
+        <v>316</v>
+      </c>
+      <c r="AE42" s="7" t="n">
+        <v>137</v>
+      </c>
+      <c r="AF42" s="7" t="n">
+        <v>179</v>
+      </c>
+      <c r="AG42" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="7" t="n">
+        <v>1237</v>
+      </c>
+      <c r="AE43" s="7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AF43" s="7" t="n">
+        <v>517</v>
+      </c>
+      <c r="AG43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="7" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AE44" s="7" t="n">
+        <v>950</v>
+      </c>
+      <c r="AF44" s="7" t="n">
+        <v>821</v>
+      </c>
+      <c r="AG44" s="7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="Q10:Q16"/>
     <mergeCell ref="AC10:AC16"/>
@@ -1980,8 +2476,10 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AB10:AB16"/>
     <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="X10:X16"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="I10:I16"/>
     <mergeCell ref="U10:U16"/>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -1162,7 +1162,10 @@
       <c r="AB19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC19" s="4" t="n"/>
+      <c r="AC19" s="7">
+        <f>SUM(M19:AB19)</f>
+        <v/>
+      </c>
       <c r="AD19" s="7" t="n">
         <v>325</v>
       </c>
@@ -1182,7 +1185,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -1219,7 +1222,10 @@
       <c r="AB20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC20" s="4" t="n"/>
+      <c r="AC20" s="7">
+        <f>SUM(M20:AB20)</f>
+        <v/>
+      </c>
       <c r="AD20" s="7" t="n">
         <v>492</v>
       </c>
@@ -1341,7 +1347,7 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="7" t="n">
@@ -1353,7 +1359,10 @@
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="4" t="n"/>
       <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
+      <c r="L23" s="7">
+        <f>SUM(D23:K23)</f>
+        <v/>
+      </c>
       <c r="M23" s="4" t="n"/>
       <c r="N23" s="4" t="n"/>
       <c r="O23" s="4" t="n"/>
@@ -1372,7 +1381,10 @@
       <c r="Z23" s="4" t="n"/>
       <c r="AA23" s="4" t="n"/>
       <c r="AB23" s="4" t="n"/>
-      <c r="AC23" s="4" t="n"/>
+      <c r="AC23" s="7">
+        <f>SUM(M23:AB23)</f>
+        <v/>
+      </c>
       <c r="AD23" s="7" t="n">
         <v>323</v>
       </c>
@@ -1392,7 +1404,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="7" t="n">
@@ -1404,7 +1416,10 @@
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="4" t="n"/>
       <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4" t="n"/>
+      <c r="L24" s="7">
+        <f>SUM(D24:K24)</f>
+        <v/>
+      </c>
       <c r="M24" s="4" t="n"/>
       <c r="N24" s="4" t="n"/>
       <c r="O24" s="4" t="n"/>
@@ -1423,7 +1438,10 @@
       <c r="Z24" s="4" t="n"/>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="4" t="n"/>
+      <c r="AC24" s="7">
+        <f>SUM(M24:AB24)</f>
+        <v/>
+      </c>
       <c r="AD24" s="7" t="n">
         <v>424</v>
       </c>
@@ -1545,7 +1563,7 @@
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="7" t="n">
@@ -1557,7 +1575,10 @@
       <c r="I27" s="4" t="n"/>
       <c r="J27" s="4" t="n"/>
       <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="n"/>
+      <c r="L27" s="7">
+        <f>SUM(D27:K27)</f>
+        <v/>
+      </c>
       <c r="M27" s="4" t="n"/>
       <c r="N27" s="4" t="n"/>
       <c r="O27" s="4" t="n"/>
@@ -1576,7 +1597,10 @@
       <c r="Z27" s="4" t="n"/>
       <c r="AA27" s="4" t="n"/>
       <c r="AB27" s="4" t="n"/>
-      <c r="AC27" s="4" t="n"/>
+      <c r="AC27" s="7">
+        <f>SUM(M27:AB27)</f>
+        <v/>
+      </c>
       <c r="AD27" s="7" t="n">
         <v>273</v>
       </c>
@@ -1596,7 +1620,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="7" t="n">
@@ -1608,7 +1632,10 @@
       <c r="I28" s="4" t="n"/>
       <c r="J28" s="4" t="n"/>
       <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
+      <c r="L28" s="7">
+        <f>SUM(D28:K28)</f>
+        <v/>
+      </c>
       <c r="M28" s="4" t="n"/>
       <c r="N28" s="4" t="n"/>
       <c r="O28" s="4" t="n"/>
@@ -1627,7 +1654,10 @@
       <c r="Z28" s="4" t="n"/>
       <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="4" t="n"/>
+      <c r="AC28" s="7">
+        <f>SUM(M28:AB28)</f>
+        <v/>
+      </c>
       <c r="AD28" s="7" t="n">
         <v>371</v>
       </c>
@@ -1751,7 +1781,7 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -1780,7 +1810,10 @@
       <c r="Z31" s="4" t="n"/>
       <c r="AA31" s="4" t="n"/>
       <c r="AB31" s="4" t="n"/>
-      <c r="AC31" s="4" t="n"/>
+      <c r="AC31" s="7">
+        <f>SUM(M31:AB31)</f>
+        <v/>
+      </c>
       <c r="AD31" s="7" t="n">
         <v>206</v>
       </c>
@@ -1800,7 +1833,7 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -1829,7 +1862,10 @@
       <c r="Z32" s="4" t="n"/>
       <c r="AA32" s="4" t="n"/>
       <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="4" t="n"/>
+      <c r="AC32" s="7">
+        <f>SUM(M32:AB32)</f>
+        <v/>
+      </c>
       <c r="AD32" s="7" t="n">
         <v>277</v>
       </c>
@@ -1949,7 +1985,7 @@
         </is>
       </c>
       <c r="C35" s="7" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -1978,7 +2014,10 @@
       <c r="Z35" s="4" t="n"/>
       <c r="AA35" s="4" t="n"/>
       <c r="AB35" s="4" t="n"/>
-      <c r="AC35" s="4" t="n"/>
+      <c r="AC35" s="7">
+        <f>SUM(M35:AB35)</f>
+        <v/>
+      </c>
       <c r="AD35" s="7" t="n">
         <v>106</v>
       </c>
@@ -1998,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2027,7 +2066,10 @@
       <c r="Z36" s="4" t="n"/>
       <c r="AA36" s="4" t="n"/>
       <c r="AB36" s="4" t="n"/>
-      <c r="AC36" s="4" t="n"/>
+      <c r="AC36" s="7">
+        <f>SUM(M36:AB36)</f>
+        <v/>
+      </c>
       <c r="AD36" s="7" t="n">
         <v>167</v>
       </c>
@@ -2145,7 +2187,7 @@
         </is>
       </c>
       <c r="C39" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2174,7 +2216,10 @@
       <c r="Z39" s="4" t="n"/>
       <c r="AA39" s="4" t="n"/>
       <c r="AB39" s="4" t="n"/>
-      <c r="AC39" s="4" t="n"/>
+      <c r="AC39" s="7">
+        <f>SUM(M39:AB39)</f>
+        <v/>
+      </c>
       <c r="AD39" s="7" t="n">
         <v>4</v>
       </c>
@@ -2194,7 +2239,7 @@
         </is>
       </c>
       <c r="C40" s="7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2223,7 +2268,10 @@
       <c r="Z40" s="4" t="n"/>
       <c r="AA40" s="4" t="n"/>
       <c r="AB40" s="4" t="n"/>
-      <c r="AC40" s="4" t="n"/>
+      <c r="AC40" s="7">
+        <f>SUM(M40:AB40)</f>
+        <v/>
+      </c>
       <c r="AD40" s="7" t="n">
         <v>40</v>
       </c>
@@ -2345,7 +2393,7 @@
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>1237</v>
+        <v>1288</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="7" t="n">
@@ -2357,7 +2405,10 @@
       <c r="I43" s="4" t="n"/>
       <c r="J43" s="4" t="n"/>
       <c r="K43" s="4" t="n"/>
-      <c r="L43" s="4" t="n"/>
+      <c r="L43" s="7">
+        <f>SUM(D43:K43)</f>
+        <v/>
+      </c>
       <c r="M43" s="4" t="n"/>
       <c r="N43" s="4" t="n"/>
       <c r="O43" s="7" t="n">
@@ -2384,7 +2435,10 @@
       <c r="AB43" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC43" s="4" t="n"/>
+      <c r="AC43" s="7">
+        <f>SUM(M43:AB43)</f>
+        <v/>
+      </c>
       <c r="AD43" s="7" t="n">
         <v>1237</v>
       </c>
@@ -2404,7 +2458,7 @@
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1771</v>
+        <v>1822</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="7" t="n">
@@ -2416,7 +2470,10 @@
       <c r="I44" s="4" t="n"/>
       <c r="J44" s="4" t="n"/>
       <c r="K44" s="4" t="n"/>
-      <c r="L44" s="4" t="n"/>
+      <c r="L44" s="7">
+        <f>SUM(D44:K44)</f>
+        <v/>
+      </c>
       <c r="M44" s="4" t="n"/>
       <c r="N44" s="4" t="n"/>
       <c r="O44" s="7" t="n">
@@ -2443,7 +2500,10 @@
       <c r="AB44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC44" s="4" t="n"/>
+      <c r="AC44" s="7">
+        <f>SUM(M44:AB44)</f>
+        <v/>
+      </c>
       <c r="AD44" s="7" t="n">
         <v>1771</v>
       </c>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pedaqoji fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
+          <t>Tibb fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>Yda-dan keçmədiyindən normativdən artiq təhsil alanə</t>
+          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>Ailə vəz ilə əlaqədar ak.məz.</t>
+          <t>Ailə vəz ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1058,13 +1058,13 @@
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="4" t="n"/>
       <c r="AD17" s="7" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="4" t="n"/>
     </row>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -1105,15 +1105,17 @@
       <c r="AB18" s="4" t="n"/>
       <c r="AC18" s="4" t="n"/>
       <c r="AD18" s="7" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4" t="n"/>
+        <v>95</v>
+      </c>
+      <c r="AG18" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
@@ -1122,7 +1124,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C19" s="4" t="n"/>
+      <c r="C19" s="7" t="n">
+        <v>325</v>
+      </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
       <c r="F19" s="4" t="n"/>
@@ -1134,24 +1138,40 @@
       <c r="L19" s="4" t="n"/>
       <c r="M19" s="4" t="n"/>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
+      <c r="O19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" s="4" t="n"/>
       <c r="R19" s="4" t="n"/>
       <c r="S19" s="4" t="n"/>
       <c r="T19" s="4" t="n"/>
       <c r="U19" s="4" t="n"/>
       <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
+      <c r="W19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
+      <c r="Y19" s="7" t="n">
+        <v>17</v>
+      </c>
       <c r="Z19" s="4" t="n"/>
       <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
+      <c r="AB19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-      <c r="AE19" s="4" t="n"/>
-      <c r="AF19" s="4" t="n"/>
+      <c r="AD19" s="7" t="n">
+        <v>325</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>178</v>
+      </c>
+      <c r="AF19" s="7" t="n">
+        <v>147</v>
+      </c>
       <c r="AG19" s="4" t="n"/>
     </row>
     <row r="20">
@@ -1162,7 +1182,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>112</v>
+        <v>492</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -1175,31 +1195,43 @@
       <c r="L20" s="4" t="n"/>
       <c r="M20" s="4" t="n"/>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
+      <c r="O20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" s="4" t="n"/>
       <c r="R20" s="4" t="n"/>
       <c r="S20" s="4" t="n"/>
       <c r="T20" s="4" t="n"/>
       <c r="U20" s="4" t="n"/>
       <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
+      <c r="W20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
+      <c r="Y20" s="7" t="n">
+        <v>17</v>
+      </c>
       <c r="Z20" s="4" t="n"/>
       <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="AB20" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="AC20" s="4" t="n"/>
       <c r="AD20" s="7" t="n">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG20" s="4" t="n"/>
+        <v>247</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1213,7 +1245,7 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -1242,13 +1274,13 @@
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
       <c r="AD21" s="7" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AG21" s="4" t="n"/>
     </row>
@@ -1260,7 +1292,7 @@
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
@@ -1289,15 +1321,17 @@
       <c r="AB22" s="4" t="n"/>
       <c r="AC22" s="4" t="n"/>
       <c r="AD22" s="7" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AF22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="4" t="n"/>
+        <v>32</v>
+      </c>
+      <c r="AG22" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
@@ -1306,9 +1340,13 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C23" s="4" t="n"/>
+      <c r="C23" s="7" t="n">
+        <v>323</v>
+      </c>
       <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
+      <c r="E23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="4" t="n"/>
       <c r="G23" s="4" t="n"/>
       <c r="H23" s="4" t="n"/>
@@ -1328,14 +1366,22 @@
       <c r="V23" s="4" t="n"/>
       <c r="W23" s="4" t="n"/>
       <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
+      <c r="Y23" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="Z23" s="4" t="n"/>
       <c r="AA23" s="4" t="n"/>
       <c r="AB23" s="4" t="n"/>
       <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-      <c r="AE23" s="4" t="n"/>
-      <c r="AF23" s="4" t="n"/>
+      <c r="AD23" s="7" t="n">
+        <v>323</v>
+      </c>
+      <c r="AE23" s="7" t="n">
+        <v>174</v>
+      </c>
+      <c r="AF23" s="7" t="n">
+        <v>149</v>
+      </c>
       <c r="AG23" s="4" t="n"/>
     </row>
     <row r="24">
@@ -1346,10 +1392,12 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
+      <c r="E24" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="4" t="n"/>
       <c r="G24" s="4" t="n"/>
       <c r="H24" s="4" t="n"/>
@@ -1369,21 +1417,25 @@
       <c r="V24" s="4" t="n"/>
       <c r="W24" s="4" t="n"/>
       <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
+      <c r="Y24" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="Z24" s="4" t="n"/>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="4" t="n"/>
       <c r="AD24" s="7" t="n">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" s="4" t="n"/>
+        <v>210</v>
+      </c>
+      <c r="AG24" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1397,7 +1449,7 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -1426,13 +1478,13 @@
       <c r="AB25" s="4" t="n"/>
       <c r="AC25" s="4" t="n"/>
       <c r="AD25" s="7" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AG25" s="4" t="n"/>
     </row>
@@ -1444,7 +1496,7 @@
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -1473,15 +1525,17 @@
       <c r="AB26" s="4" t="n"/>
       <c r="AC26" s="4" t="n"/>
       <c r="AD26" s="7" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="4" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="AG26" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n"/>
@@ -1490,9 +1544,13 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n"/>
+      <c r="C27" s="7" t="n">
+        <v>273</v>
+      </c>
       <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
+      <c r="E27" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F27" s="4" t="n"/>
       <c r="G27" s="4" t="n"/>
       <c r="H27" s="4" t="n"/>
@@ -1512,14 +1570,22 @@
       <c r="V27" s="4" t="n"/>
       <c r="W27" s="4" t="n"/>
       <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
+      <c r="Y27" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="Z27" s="4" t="n"/>
       <c r="AA27" s="4" t="n"/>
       <c r="AB27" s="4" t="n"/>
       <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-      <c r="AE27" s="4" t="n"/>
-      <c r="AF27" s="4" t="n"/>
+      <c r="AD27" s="7" t="n">
+        <v>273</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>169</v>
+      </c>
+      <c r="AF27" s="7" t="n">
+        <v>104</v>
+      </c>
       <c r="AG27" s="4" t="n"/>
     </row>
     <row r="28">
@@ -1530,10 +1596,12 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
+      <c r="E28" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="F28" s="4" t="n"/>
       <c r="G28" s="4" t="n"/>
       <c r="H28" s="4" t="n"/>
@@ -1553,21 +1621,25 @@
       <c r="V28" s="4" t="n"/>
       <c r="W28" s="4" t="n"/>
       <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
+      <c r="Y28" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="Z28" s="4" t="n"/>
       <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n"/>
       <c r="AC28" s="4" t="n"/>
       <c r="AD28" s="7" t="n">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG28" s="4" t="n"/>
+        <v>156</v>
+      </c>
+      <c r="AG28" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1581,12 +1653,10 @@
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D29" s="4" t="n"/>
-      <c r="E29" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
       <c r="G29" s="4" t="n"/>
       <c r="H29" s="4" t="n"/>
@@ -1606,21 +1676,19 @@
       <c r="V29" s="4" t="n"/>
       <c r="W29" s="4" t="n"/>
       <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y29" s="4" t="n"/>
       <c r="Z29" s="4" t="n"/>
       <c r="AA29" s="4" t="n"/>
       <c r="AB29" s="4" t="n"/>
       <c r="AC29" s="4" t="n"/>
       <c r="AD29" s="7" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG29" s="7" t="n">
         <v>1</v>
@@ -1634,7 +1702,7 @@
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -1663,15 +1731,17 @@
       <c r="AB30" s="4" t="n"/>
       <c r="AC30" s="4" t="n"/>
       <c r="AD30" s="7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG30" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="AG30" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
@@ -1680,7 +1750,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C31" s="4" t="n"/>
+      <c r="C31" s="7" t="n">
+        <v>206</v>
+      </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
       <c r="F31" s="4" t="n"/>
@@ -1702,14 +1774,22 @@
       <c r="V31" s="4" t="n"/>
       <c r="W31" s="4" t="n"/>
       <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
+      <c r="Y31" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="Z31" s="4" t="n"/>
       <c r="AA31" s="4" t="n"/>
       <c r="AB31" s="4" t="n"/>
       <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-      <c r="AE31" s="4" t="n"/>
-      <c r="AF31" s="4" t="n"/>
+      <c r="AD31" s="7" t="n">
+        <v>206</v>
+      </c>
+      <c r="AE31" s="7" t="n">
+        <v>138</v>
+      </c>
+      <c r="AF31" s="7" t="n">
+        <v>68</v>
+      </c>
       <c r="AG31" s="4" t="n"/>
     </row>
     <row r="32">
@@ -1720,12 +1800,10 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="D32" s="4" t="n"/>
-      <c r="E32" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E32" s="4" t="n"/>
       <c r="F32" s="4" t="n"/>
       <c r="G32" s="4" t="n"/>
       <c r="H32" s="4" t="n"/>
@@ -1746,29 +1824,29 @@
       <c r="W32" s="4" t="n"/>
       <c r="X32" s="4" t="n"/>
       <c r="Y32" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="4" t="n"/>
       <c r="AA32" s="4" t="n"/>
       <c r="AB32" s="4" t="n"/>
       <c r="AC32" s="4" t="n"/>
       <c r="AD32" s="7" t="n">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="AG32" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Ümumi cəmi</t>
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -1777,12 +1855,10 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>335</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4" t="n"/>
-      <c r="E33" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E33" s="4" t="n"/>
       <c r="F33" s="4" t="n"/>
       <c r="G33" s="4" t="n"/>
       <c r="H33" s="4" t="n"/>
@@ -1802,25 +1878,21 @@
       <c r="V33" s="4" t="n"/>
       <c r="W33" s="4" t="n"/>
       <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y33" s="4" t="n"/>
       <c r="Z33" s="4" t="n"/>
       <c r="AA33" s="4" t="n"/>
       <c r="AB33" s="4" t="n"/>
       <c r="AC33" s="4" t="n"/>
       <c r="AD33" s="7" t="n">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="AE33" s="7" t="n">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG33" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AG33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -1830,7 +1902,7 @@
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -1859,13 +1931,13 @@
       <c r="AB34" s="4" t="n"/>
       <c r="AC34" s="4" t="n"/>
       <c r="AD34" s="7" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AG34" s="4" t="n"/>
     </row>
@@ -1876,7 +1948,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C35" s="4" t="n"/>
+      <c r="C35" s="7" t="n">
+        <v>106</v>
+      </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="4" t="n"/>
@@ -1898,14 +1972,22 @@
       <c r="V35" s="4" t="n"/>
       <c r="W35" s="4" t="n"/>
       <c r="X35" s="4" t="n"/>
-      <c r="Y35" s="4" t="n"/>
+      <c r="Y35" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="Z35" s="4" t="n"/>
       <c r="AA35" s="4" t="n"/>
       <c r="AB35" s="4" t="n"/>
       <c r="AC35" s="4" t="n"/>
-      <c r="AD35" s="4" t="n"/>
-      <c r="AE35" s="4" t="n"/>
-      <c r="AF35" s="4" t="n"/>
+      <c r="AD35" s="7" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF35" s="7" t="n">
+        <v>48</v>
+      </c>
       <c r="AG35" s="4" t="n"/>
     </row>
     <row r="36">
@@ -1916,12 +1998,10 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>376</v>
+        <v>167</v>
       </c>
       <c r="D36" s="4" t="n"/>
-      <c r="E36" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" s="4" t="n"/>
       <c r="F36" s="4" t="n"/>
       <c r="G36" s="4" t="n"/>
       <c r="H36" s="4" t="n"/>
@@ -1942,27 +2022,443 @@
       <c r="W36" s="4" t="n"/>
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="4" t="n"/>
       <c r="AA36" s="4" t="n"/>
       <c r="AB36" s="4" t="n"/>
       <c r="AC36" s="4" t="n"/>
       <c r="AD36" s="7" t="n">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <v>66</v>
-      </c>
-      <c r="AG36" s="7" t="n">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="AG36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE37" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF37" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE40" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Ümumi cəmi</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişli</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="AE41" s="7" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF41" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG41" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>Ödənişsiz</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>316</v>
+      </c>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="7" t="n">
+        <v>316</v>
+      </c>
+      <c r="AE42" s="7" t="n">
+        <v>137</v>
+      </c>
+      <c r="AF42" s="7" t="n">
+        <v>179</v>
+      </c>
+      <c r="AG42" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>Xarici</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="7" t="n">
+        <v>1237</v>
+      </c>
+      <c r="AE43" s="7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AF43" s="7" t="n">
+        <v>517</v>
+      </c>
+      <c r="AG43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>Cəmi</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="7" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AE44" s="7" t="n">
+        <v>950</v>
+      </c>
+      <c r="AF44" s="7" t="n">
+        <v>821</v>
+      </c>
+      <c r="AG44" s="7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="Q10:Q16"/>
     <mergeCell ref="AC10:AC16"/>
@@ -1980,8 +2476,10 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AB10:AB16"/>
     <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="X10:X16"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="I10:I16"/>
     <mergeCell ref="U10:U16"/>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -1170,10 +1170,10 @@
         <v>325</v>
       </c>
       <c r="AE19" s="7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG19" s="4" t="n"/>
     </row>
@@ -1230,10 +1230,10 @@
         <v>492</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG20" s="7" t="n">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="7" t="n">
@@ -1386,13 +1386,13 @@
         <v/>
       </c>
       <c r="AD23" s="7" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AG23" s="4" t="n"/>
     </row>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="7" t="n">
@@ -1443,13 +1443,13 @@
         <v/>
       </c>
       <c r="AD24" s="7" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG24" s="7" t="n">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="7" t="n">
@@ -1602,13 +1602,13 @@
         <v/>
       </c>
       <c r="AD27" s="7" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF27" s="7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG27" s="4" t="n"/>
     </row>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="7" t="n">
@@ -1659,13 +1659,13 @@
         <v/>
       </c>
       <c r="AD28" s="7" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG28" s="7" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -1815,13 +1815,13 @@
         <v/>
       </c>
       <c r="AD31" s="7" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AE31" s="7" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG31" s="4" t="n"/>
     </row>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -1867,13 +1867,13 @@
         <v/>
       </c>
       <c r="AD32" s="7" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG32" s="7" t="n">
         <v>2</v>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C35" s="7" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2019,10 +2019,10 @@
         <v/>
       </c>
       <c r="AD35" s="7" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE35" s="7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF35" s="7" t="n">
         <v>48</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2071,10 +2071,10 @@
         <v/>
       </c>
       <c r="AD36" s="7" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF36" s="7" t="n">
         <v>82</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="7" t="n">
@@ -2440,13 +2440,13 @@
         <v/>
       </c>
       <c r="AD43" s="7" t="n">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="AE43" s="7" t="n">
         <v>720</v>
       </c>
       <c r="AF43" s="7" t="n">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG43" s="4" t="n"/>
     </row>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="7" t="n">
@@ -2505,13 +2505,13 @@
         <v/>
       </c>
       <c r="AD44" s="7" t="n">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="AE44" s="7" t="n">
         <v>950</v>
       </c>
       <c r="AF44" s="7" t="n">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="AG44" s="7" t="n">
         <v>6</v>

--- a/excel-files/2024-02-01-2024-02-29-1.xlsx
+++ b/excel-files/2024-02-01-2024-02-29-1.xlsx
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1058,13 +1058,13 @@
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="4" t="n"/>
       <c r="AD17" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE17" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG17" s="4" t="n"/>
     </row>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -1167,13 +1167,13 @@
         <v/>
       </c>
       <c r="AD19" s="7" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE19" s="7" t="n">
         <v>178</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG19" s="4" t="n"/>
     </row>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -1280,13 +1280,13 @@
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
       <c r="AD21" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG21" s="4" t="n"/>
     </row>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="7" t="n">
@@ -1386,13 +1386,13 @@
         <v/>
       </c>
       <c r="AD23" s="7" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG23" s="4" t="n"/>
     </row>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="7" t="n">
@@ -1443,13 +1443,13 @@
         <v/>
       </c>
       <c r="AD24" s="7" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG24" s="7" t="n">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="7" t="n">
@@ -1602,10 +1602,10 @@
         <v/>
       </c>
       <c r="AD27" s="7" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF27" s="7" t="n">
         <v>104</v>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="7" t="n">
@@ -1659,10 +1659,10 @@
         <v/>
       </c>
       <c r="AD28" s="7" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" s="7" t="n">
         <v>156</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -1815,13 +1815,13 @@
         <v/>
       </c>
       <c r="AD31" s="7" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE31" s="7" t="n">
         <v>138</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG31" s="4" t="n"/>
     </row>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -1867,13 +1867,13 @@
         <v/>
       </c>
       <c r="AD32" s="7" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE32" s="7" t="n">
         <v>174</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG32" s="7" t="n">
         <v>2</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C41" s="7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -2324,13 +2324,13 @@
       <c r="AB41" s="4" t="n"/>
       <c r="AC41" s="4" t="n"/>
       <c r="AD41" s="7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AE41" s="7" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG41" s="7" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="7" t="n">
@@ -2440,13 +2440,13 @@
         <v/>
       </c>
       <c r="AD43" s="7" t="n">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="AE43" s="7" t="n">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AF43" s="7" t="n">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG43" s="4" t="n"/>
     </row>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="7" t="n">
@@ -2505,13 +2505,13 @@
         <v/>
       </c>
       <c r="AD44" s="7" t="n">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="AE44" s="7" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AF44" s="7" t="n">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AG44" s="7" t="n">
         <v>6</v>
